--- a/bolsas.xlsx
+++ b/bolsas.xlsx
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:B246"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/bolsas.xlsx
+++ b/bolsas.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\2 Semestre ENG\Ciência dos Dados\Projeto 1\cdadosproj1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE051C8-25CE-4E4C-8A8C-CB5200CBC353}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Treinamento" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Teste" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
+    <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,10 +28,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
-    <t xml:space="preserve">Treinamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @danieljosebr: bolsas de todo o mundo estão em queda!
+    <t>Treinamento</t>
+  </si>
+  <si>
+    <t>rt @danieljosebr: bolsas de todo o mundo estão em queda!
 brasil: -7,6%
 eua: -4,8%
 canadá: -4,6%
@@ -35,171 +40,171 @@
 israel:…</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @sergeta: recuos das bolsas de valores no último mês. olhando pelo covid-19: dos países que caíram pelo menos 20% o brasil é o único com…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e inundar o mercado com dinheiro (excesso de liquidez). as bolsas vao ter uma retomada histórica. vão subir como nunca antes vito. vai ter muita gente que comprar na baixa ganhando dinheiro como gente grande. e voce ai achando que nada é manipulado ne? +</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aposto em cb amanhã das bolsas americanas e b3 pode até repicar mas não confio, acredito que tenha outro cb pra depois recuperar, boa noite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">última pandemia não houve fechamento de fronteiras, quarentena de países inteiros, paralisação de voos dos eua para outro continente, nem as bolsas caíram tanto. dessa vez o vírus é veloz e mandará 20% de quem pegar para a internação, dos quais 1/4 não voltam. #coronavirus https://t.co/zfrnq99p4f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">depois do fechamento dos eua para vôos da europa, como vocês acham que vão abrir as bolsas amanhã? menos q 3 circuit breaks, pago o cachorro quente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolsas asiáticas têm forte queda após discurso de laranjo; índices futuros despencam
+    <t>rt @sergeta: recuos das bolsas de valores no último mês. olhando pelo covid-19: dos países que caíram pelo menos 20% o brasil é o único com…</t>
+  </si>
+  <si>
+    <t>e inundar o mercado com dinheiro (excesso de liquidez). as bolsas vao ter uma retomada histórica. vão subir como nunca antes vito. vai ter muita gente que comprar na baixa ganhando dinheiro como gente grande. e voce ai achando que nada é manipulado ne? +</t>
+  </si>
+  <si>
+    <t>aposto em cb amanhã das bolsas americanas e b3 pode até repicar mas não confio, acredito que tenha outro cb pra depois recuperar, boa noite</t>
+  </si>
+  <si>
+    <t>última pandemia não houve fechamento de fronteiras, quarentena de países inteiros, paralisação de voos dos eua para outro continente, nem as bolsas caíram tanto. dessa vez o vírus é veloz e mandará 20% de quem pegar para a internação, dos quais 1/4 não voltam. #coronavirus https://t.co/zfrnq99p4f</t>
+  </si>
+  <si>
+    <t>depois do fechamento dos eua para vôos da europa, como vocês acham que vão abrir as bolsas amanhã? menos q 3 circuit breaks, pago o cachorro quente.</t>
+  </si>
+  <si>
+    <t>bolsas asiáticas têm forte queda após discurso de laranjo; índices futuros despencam
 https://t.co/rosdd5uddb</t>
   </si>
   <si>
-    <t xml:space="preserve">o isolamento brasileiro, no entanto, gera algumas distorções na cultura. tem muita gente exagerando o peso do governo na crise atual. bolsas do mundo todo estão caindo. o brasil não é o centro do mundo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolsas da ásia com humores diferentes. japão caindo 4,92%. hong kong -3,81%. shanghai -1,34%.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @llfmph: eu imaginei muito a lena segurando a sam numa daquelas bolsas que as madames levam seus cachorrinhos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nem sei como vou fazer pra trazer aquelas bolsas todas amanhã 😫</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as bolsas de valores pelo mundo amanhã terão uma queda histórica.
+    <t>o isolamento brasileiro, no entanto, gera algumas distorções na cultura. tem muita gente exagerando o peso do governo na crise atual. bolsas do mundo todo estão caindo. o brasil não é o centro do mundo.</t>
+  </si>
+  <si>
+    <t>bolsas da ásia com humores diferentes. japão caindo 4,92%. hong kong -3,81%. shanghai -1,34%.</t>
+  </si>
+  <si>
+    <t>rt @llfmph: eu imaginei muito a lena segurando a sam numa daquelas bolsas que as madames levam seus cachorrinhos</t>
+  </si>
+  <si>
+    <t>nem sei como vou fazer pra trazer aquelas bolsas todas amanhã 😫</t>
+  </si>
+  <si>
+    <t>as bolsas de valores pelo mundo amanhã terão uma queda histórica.
 as dessa semana até agora não são nada.
 e, como sempre, já podemos apostar em quem terá uma queda recorde: a do brasil, de guedes e bolsonaro.
 dólar a r$ 4,90?</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @agmartins3: #j10
+    <t>rt @agmartins3: #j10
 os arautos das más notícias, querem dizer que as bolsas asiáticas são as que dão o rumo para as demais bolsas.
 avise…</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @osvladpereira: augusto nunes: "crise entre arábia saudita e rússia derruba bolsas."
+    <t>rt @osvladpereira: augusto nunes: "crise entre arábia saudita e rússia derruba bolsas."
 mas para gleisi o culpado é o presidente bolsonaro…</t>
   </si>
   <si>
-    <t xml:space="preserve">bear market assinala a queda de 20% nas bolsas.
+    <t>bear market assinala a queda de 20% nas bolsas.
 o de 1929 demorou 36 pregões. 
 o de hoje, apenas 21...</t>
   </si>
   <si>
-    <t xml:space="preserve">dia começa, e no outro lado do mundo, bolsas seguem despencando: austrália - 7% e tóquio -4%. https://t.co/xwttvsoln4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os mercados não reagiram bem ao anúncio do presidente trump. principais índices futuros das bolsas de nova york (dow jones, s&amp;amp;p 500 e nasdaq) exibem queda de quase 5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minha fé é tanta q to arrumando minhas bolsas pra ir pra casa de fabricio e coloquei o look e make reserva caso a gente ganhe o ingre pra ir na zoox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">durante e depois do pronunciamento de trump no salão oval, os índices futuros das bolsas de nova york aceleraram as perdas, assim como os contratos de petróleo. o dólar também passou a cair mais em relação ao iene, moeda considerada mais segura em tempos de crise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@capivaratrader vai sair... cb nas bolsas do mundo todo de uma vez só. kkkkk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @sakutaehy: oi gente, eu queria a atenção de vcs um oouquinho... minha mãe trabalha com artesanato e ela esta vendento varias coisas, bo…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">que imprensa chapa-branca, peloamordedeus! as bolsas caíram e o dólar subiu não foi por causa do coronavírus e da crise econômica mundial, mas porque o congresso derrubou um veto do bolsonaro. é de pasmar. botando lenha na fogueira marcada para 15.3.
+    <t>dia começa, e no outro lado do mundo, bolsas seguem despencando: austrália - 7% e tóquio -4%. https://t.co/xwttvsoln4</t>
+  </si>
+  <si>
+    <t>os mercados não reagiram bem ao anúncio do presidente trump. principais índices futuros das bolsas de nova york (dow jones, s&amp;amp;p 500 e nasdaq) exibem queda de quase 5%</t>
+  </si>
+  <si>
+    <t>minha fé é tanta q to arrumando minhas bolsas pra ir pra casa de fabricio e coloquei o look e make reserva caso a gente ganhe o ingre pra ir na zoox</t>
+  </si>
+  <si>
+    <t>durante e depois do pronunciamento de trump no salão oval, os índices futuros das bolsas de nova york aceleraram as perdas, assim como os contratos de petróleo. o dólar também passou a cair mais em relação ao iene, moeda considerada mais segura em tempos de crise</t>
+  </si>
+  <si>
+    <t>@capivaratrader vai sair... cb nas bolsas do mundo todo de uma vez só. kkkkk</t>
+  </si>
+  <si>
+    <t>rt @sakutaehy: oi gente, eu queria a atenção de vcs um oouquinho... minha mãe trabalha com artesanato e ela esta vendento varias coisas, bo…</t>
+  </si>
+  <si>
+    <t>que imprensa chapa-branca, peloamordedeus! as bolsas caíram e o dólar subiu não foi por causa do coronavírus e da crise econômica mundial, mas porque o congresso derrubou um veto do bolsonaro. é de pasmar. botando lenha na fogueira marcada para 15.3.
 https://t.co/z6yhhyzudq</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @ddsamorim23: @debora_d_diniz minha leitura é diferente: a crista negacionista arrogante dos fascistas inevitavelmente se dobra frente à…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@forastieri neste momento, bolsas asiáticas caindo 4%, em média, e nem tem o reflexo de fechar o espaço aéreo entre eua e europa continental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@paulosnarciso pelo oq eu entendi vc tá em 4 de 4 bolsas e significa que tem 3 pessoas na sua frente. e se levar tudo certinho a quarta vaga é sua.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a unb não tem água nos bebedouros, não tem papel higiênico, cortou bolsas, tem mosquito da dengue, etc, mas não ter 1 semana de aula por causa do coronavirus é o que vai atrapalhar o rendimento acadêmico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@giovann67526838 @anacamiran sim amiga kkkkkkkk umas 15 bolsas p 4 pessoas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@whindersson por isso q as bolsas no mundo todo despencaram.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a bolsas de valores irão cair é isso pode gerar a maior crise que o mundo vai ver, medo eu tenho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@marycognata @marconha77 pibid? programa institucional de bolsas de iniciação a docência? mds, eu fui bolsista e sou grandiosamente grato por esse programa...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amanha as bolsas estarao no modo marea turbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o problema não é a letalidade do vírus, mas o pânico em cadei que ele provoca. por acaso a gripe comum derruba as bolsas de valores do mundo? 🤷🏼‍♀️ https://t.co/bsuhdhvr0f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">menina, bolsa amanhã já deve amanhecer com circuit breaker, quebradeira já rolando nas bolsas internacionais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@oatila é possível eles começarem a cancelar a partir de agora eventos de meio de ano por conta do vírus? me refiro a bolsas escolares que possibilitam ida e saída dos us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nesta quinta-feira, as bolsas da ásia abrem com forte queda, com a declaração de trump que empedem a entrada de europeus no eua, para controlar o vírus no país.     aproveitem, o bear market continua nesta quinta!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@raullsantiago os dados até aqui não indicam nenhum favorecimento a ninguém. todas as bolsas derreteram e o patamar de desaceleração é destrutivo a governos e empresas. ainda não parece ter ninguém que lucrariam com algo dessa magnitude. e o vírus n foi criado, sempre existiu na vida selvagem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eu fui no centro da cidade hoje e tinha meio mundo usando máscara e com álcool em gel pendurado nas bolsas, já devo me preocupar?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolsas da ásia e da austrália abriram os seus pregões com fortes baixas nesta quinta-feira. este fato vai se refletir por aqui. bao há dúvida.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @winstonling: esta é para você entender a fofoca alarmista em torno do coronavírus, e o sobe-desce recente nas bolsas de valores mundiai…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@albuquerque_af concordo. parece que agora virou pandemia pedir pra fecharem as bolsas. que merda é essa? só pode deixar aberto quando tem robô comprando passivamente com dinheiro impresso pelos bcs? essa foi o fim da picada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@jecihell não sei não. as bolsas nem devem abrir. ainda mais com essa notícia do trump “fechando” os voos da europa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@g1 legal que esse bononoro rebate a organizaçao mundial de saude. nivel global.  fora as bolsas quebrando! esse cara oficialmentw tem um oarafuso a menos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolsas asiaticas https://t.co/hxxjdiamzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @ph_caixeiro: todo esse caos porque algum arrombado foi comer um pangolim, animal mais traficado do mundo que pode ter servido de interm…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @causaoperariatv: oms decide que "fantasia" de bolsonaro é pandemia. bolsas despencam de novo. resumo do dia 444 - 11/3/20 https://t.co/…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as bolsas de valores asiáticas abriram com baixas próximas aos 5%. o mercado deve repercutir nesta quinta as ações americanas para combater o coronavírus. a suspensão de circulação entre eua e europa pode impactar cadeia de suprimentos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @marcelocerize: bora lá, vocês são traders, porque querem fecharam as bolsas por dias?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cotação do café n.y. finalizou a quarta-feira em baixa: mercado interno bolsas n.y. e b.m.f… https://t.co/h7aervecdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ajudemserena eu to impressionada como famosos podem comprar bolsas e carteiras de 15/20 mil e não podem doar 1 centavo pra ela. fico indignada!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@lgodan pânico mundial.
+    <t>rt @ddsamorim23: @debora_d_diniz minha leitura é diferente: a crista negacionista arrogante dos fascistas inevitavelmente se dobra frente à…</t>
+  </si>
+  <si>
+    <t>@forastieri neste momento, bolsas asiáticas caindo 4%, em média, e nem tem o reflexo de fechar o espaço aéreo entre eua e europa continental</t>
+  </si>
+  <si>
+    <t>@paulosnarciso pelo oq eu entendi vc tá em 4 de 4 bolsas e significa que tem 3 pessoas na sua frente. e se levar tudo certinho a quarta vaga é sua.</t>
+  </si>
+  <si>
+    <t>a unb não tem água nos bebedouros, não tem papel higiênico, cortou bolsas, tem mosquito da dengue, etc, mas não ter 1 semana de aula por causa do coronavirus é o que vai atrapalhar o rendimento acadêmico</t>
+  </si>
+  <si>
+    <t>@giovann67526838 @anacamiran sim amiga kkkkkkkk umas 15 bolsas p 4 pessoas</t>
+  </si>
+  <si>
+    <t>@whindersson por isso q as bolsas no mundo todo despencaram.</t>
+  </si>
+  <si>
+    <t>a bolsas de valores irão cair é isso pode gerar a maior crise que o mundo vai ver, medo eu tenho</t>
+  </si>
+  <si>
+    <t>@marycognata @marconha77 pibid? programa institucional de bolsas de iniciação a docência? mds, eu fui bolsista e sou grandiosamente grato por esse programa...</t>
+  </si>
+  <si>
+    <t>amanha as bolsas estarao no modo marea turbo</t>
+  </si>
+  <si>
+    <t>o problema não é a letalidade do vírus, mas o pânico em cadei que ele provoca. por acaso a gripe comum derruba as bolsas de valores do mundo? 🤷🏼‍♀️ https://t.co/bsuhdhvr0f</t>
+  </si>
+  <si>
+    <t>menina, bolsa amanhã já deve amanhecer com circuit breaker, quebradeira já rolando nas bolsas internacionais</t>
+  </si>
+  <si>
+    <t>@oatila é possível eles começarem a cancelar a partir de agora eventos de meio de ano por conta do vírus? me refiro a bolsas escolares que possibilitam ida e saída dos us</t>
+  </si>
+  <si>
+    <t>nesta quinta-feira, as bolsas da ásia abrem com forte queda, com a declaração de trump que empedem a entrada de europeus no eua, para controlar o vírus no país.     aproveitem, o bear market continua nesta quinta!</t>
+  </si>
+  <si>
+    <t>@raullsantiago os dados até aqui não indicam nenhum favorecimento a ninguém. todas as bolsas derreteram e o patamar de desaceleração é destrutivo a governos e empresas. ainda não parece ter ninguém que lucrariam com algo dessa magnitude. e o vírus n foi criado, sempre existiu na vida selvagem.</t>
+  </si>
+  <si>
+    <t>eu fui no centro da cidade hoje e tinha meio mundo usando máscara e com álcool em gel pendurado nas bolsas, já devo me preocupar?</t>
+  </si>
+  <si>
+    <t>bolsas da ásia e da austrália abriram os seus pregões com fortes baixas nesta quinta-feira. este fato vai se refletir por aqui. bao há dúvida.</t>
+  </si>
+  <si>
+    <t>rt @winstonling: esta é para você entender a fofoca alarmista em torno do coronavírus, e o sobe-desce recente nas bolsas de valores mundiai…</t>
+  </si>
+  <si>
+    <t>@albuquerque_af concordo. parece que agora virou pandemia pedir pra fecharem as bolsas. que merda é essa? só pode deixar aberto quando tem robô comprando passivamente com dinheiro impresso pelos bcs? essa foi o fim da picada</t>
+  </si>
+  <si>
+    <t>@jecihell não sei não. as bolsas nem devem abrir. ainda mais com essa notícia do trump “fechando” os voos da europa.</t>
+  </si>
+  <si>
+    <t>@g1 legal que esse bononoro rebate a organizaçao mundial de saude. nivel global.  fora as bolsas quebrando! esse cara oficialmentw tem um oarafuso a menos.</t>
+  </si>
+  <si>
+    <t>bolsas asiaticas https://t.co/hxxjdiamzi</t>
+  </si>
+  <si>
+    <t>rt @ph_caixeiro: todo esse caos porque algum arrombado foi comer um pangolim, animal mais traficado do mundo que pode ter servido de interm…</t>
+  </si>
+  <si>
+    <t>rt @causaoperariatv: oms decide que "fantasia" de bolsonaro é pandemia. bolsas despencam de novo. resumo do dia 444 - 11/3/20 https://t.co/…</t>
+  </si>
+  <si>
+    <t>as bolsas de valores asiáticas abriram com baixas próximas aos 5%. o mercado deve repercutir nesta quinta as ações americanas para combater o coronavírus. a suspensão de circulação entre eua e europa pode impactar cadeia de suprimentos.</t>
+  </si>
+  <si>
+    <t>rt @marcelocerize: bora lá, vocês são traders, porque querem fecharam as bolsas por dias?</t>
+  </si>
+  <si>
+    <t>cotação do café n.y. finalizou a quarta-feira em baixa: mercado interno bolsas n.y. e b.m.f… https://t.co/h7aervecdb</t>
+  </si>
+  <si>
+    <t>@ajudemserena eu to impressionada como famosos podem comprar bolsas e carteiras de 15/20 mil e não podem doar 1 centavo pra ela. fico indignada!!</t>
+  </si>
+  <si>
+    <t>@lgodan pânico mundial.
 só o traste que "preside" o br acha que a mídia é que está aumentando as coisas.
 vamos ver como reagem as bolsas mundiais.
 bolsabr poderá até parar se o movimento cair acima dos 20%.
 o dolar, só não chega em 5,00 se queimarem mais das reservas deixadas pe pt.</t>
   </si>
   <si>
-    <t xml:space="preserve">@maitegentileza amiga quanto é só pra tu me mandar essa ultima mode de paris das bolsas? me ajuda com esse patrocínio teu! hahahahaha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @jouberth19: queda das bolsas:
+    <t>@maitegentileza amiga quanto é só pra tu me mandar essa ultima mode de paris das bolsas? me ajuda com esse patrocínio teu! hahahahaha</t>
+  </si>
+  <si>
+    <t>rt @jouberth19: queda das bolsas:
 🇶🇦 -9,3%
 🇰🇼 -10,3%
 🇬🇷 -12,4%
@@ -214,126 +219,126 @@
 🇩🇪 -6,5%…</t>
   </si>
   <si>
-    <t xml:space="preserve">bolsas asiáticas têm forte queda após discurso de trump; índices futuros despencam
+    <t>bolsas asiáticas têm forte queda após discurso de trump; índices futuros despencam
 https://t.co/udiosuelag</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @henriquefontana: é preciso paralisar a privatização de setores estratégicos. como vamos vender o patrimônio dos brasileiros nesse cassi…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as companhias são as mais prejudicas nas bolsas internacionais. o derretimento das ações preocupa porque a situação financeira de muitas aéreas já era preocupante. os governos não têm se compadecido das companhias e a hipótese de uma salvação governamental está distante.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@lgodan quanto mais as notícias mexerem com os índices dos mercados e bolsas mundiais melhor para os interessados!!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @bob_fernandes: o petróleo em baixa, o coronavírus em alta, bolsas do mundo e bovespa despencando ou na gangorra, o dólar, o euro e a li…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ranicarvalho @danilotreta lembrando que a loja do centro (que vende calçados, bolsas e acessórios) se chama pintos calçados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vendo vídeo de bolsas e sapatos de luxos sonhando com o dia que terei vários</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@veramagalhaes próximo domingo 15 de março o brasil estará nas ruas. foda-se o carona vírus. máscara e álcool gel rapaziada. levem nas bolsas e vamos botar pra fazer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eu imaginei muito a lena segurando a sam numa daquelas bolsas que as madames levam seus cachorrinhos https://t.co/zo4clrprpx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vamo fingir que os pregões ainda são aquele monte de doido junto gritando no telefone e fechar as bolsas por uns 15 dias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duas bolsas disponíveis 
+    <t>rt @henriquefontana: é preciso paralisar a privatização de setores estratégicos. como vamos vender o patrimônio dos brasileiros nesse cassi…</t>
+  </si>
+  <si>
+    <t>as companhias são as mais prejudicas nas bolsas internacionais. o derretimento das ações preocupa porque a situação financeira de muitas aéreas já era preocupante. os governos não têm se compadecido das companhias e a hipótese de uma salvação governamental está distante.</t>
+  </si>
+  <si>
+    <t>@lgodan quanto mais as notícias mexerem com os índices dos mercados e bolsas mundiais melhor para os interessados!!!</t>
+  </si>
+  <si>
+    <t>rt @bob_fernandes: o petróleo em baixa, o coronavírus em alta, bolsas do mundo e bovespa despencando ou na gangorra, o dólar, o euro e a li…</t>
+  </si>
+  <si>
+    <t>@ranicarvalho @danilotreta lembrando que a loja do centro (que vende calçados, bolsas e acessórios) se chama pintos calçados</t>
+  </si>
+  <si>
+    <t>vendo vídeo de bolsas e sapatos de luxos sonhando com o dia que terei vários</t>
+  </si>
+  <si>
+    <t>@veramagalhaes próximo domingo 15 de março o brasil estará nas ruas. foda-se o carona vírus. máscara e álcool gel rapaziada. levem nas bolsas e vamos botar pra fazer.</t>
+  </si>
+  <si>
+    <t>eu imaginei muito a lena segurando a sam numa daquelas bolsas que as madames levam seus cachorrinhos https://t.co/zo4clrprpx</t>
+  </si>
+  <si>
+    <t>vamo fingir que os pregões ainda são aquele monte de doido junto gritando no telefone e fechar as bolsas por uns 15 dias</t>
+  </si>
+  <si>
+    <t>duas bolsas disponíveis 
 4° na lista 
 quais as chances affff</t>
   </si>
   <si>
-    <t xml:space="preserve">recuos das bolsas de valores no último mês. olhando pelo covid-19: dos países que caíram pelo menos 20% o brasil é o único com menos de 100 casos confirmados (52). amanhã o circuit breaker pede música no fantástico? https://t.co/ovhpbp8vfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eua barram todas viagens vindas da europa. as bolsas amanhã enlouquecem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @carloscezarcjr: ontem as bolsas caíram no mundo inteiro.
+    <t>recuos das bolsas de valores no último mês. olhando pelo covid-19: dos países que caíram pelo menos 20% o brasil é o único com menos de 100 casos confirmados (52). amanhã o circuit breaker pede música no fantástico? https://t.co/ovhpbp8vfg</t>
+  </si>
+  <si>
+    <t>eua barram todas viagens vindas da europa. as bolsas amanhã enlouquecem.</t>
+  </si>
+  <si>
+    <t>rt @carloscezarcjr: ontem as bolsas caíram no mundo inteiro.
 aqui no brasil a oposição(oportunista como sempre) não perdeu tempo para joga…</t>
   </si>
   <si>
-    <t xml:space="preserve">oms declara pandemia do coronavírus
+    <t>oms declara pandemia do coronavírus
 bolsas de valores caem pelo mundo depois de anúncio
 acompanhe na reportagem de @jumaciel #sbtbrasil</t>
   </si>
   <si>
-    <t xml:space="preserve">o tom hanks tá com corona.
+    <t>o tom hanks tá com corona.
 a nba cancelou a temporada.
 os eua fecharam o espaço aéreo pra europa. 
 as bolsas estão despencando. 
 eu tô nervosa.</t>
   </si>
   <si>
-    <t xml:space="preserve">por fim, vamos a palavra recession, que é a recessão econômica. e assim vamos a conclusão.
+    <t>por fim, vamos a palavra recession, que é a recessão econômica. e assim vamos a conclusão.
 no dia 11 de março de 2020, foi anunciada pela oms a pandemia do coronavírus. isso fez bolsas caírem, assim como movimentos governamentais do mundo todo.</t>
   </si>
   <si>
-    <t xml:space="preserve">os estados unidos guisados por trump fecharam as fronteiras para voos de países que são fonte da pandemia de coronavírus e vcs sabem o que isso significa? estamos prestes a ter um colapso na economia mundial. amanhã vocês vão ver como vão se comportar as bolsas de valores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@camaradeputados parabéns inúteis! o país começando a ser afetado com a queda das bolsas, a economia tentando se recuperar, vcs fazem essa cagada! é mta imbecilidade em um lugar!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @fabiojbacha: vou falar: bolsas deveriam fechar uns dias até as informações estarem certas.. movimento de destruição de riqueza aue mtos…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @gdoweber: amanhã as bolsas não caem, desabam…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@alesilva_38 proponha hoje! privatizar todas as faculdades federais. vai sobrar dinheiro para mais essa "benfeitoria" vinda do pagador de impostos.
+    <t>os estados unidos guisados por trump fecharam as fronteiras para voos de países que são fonte da pandemia de coronavírus e vcs sabem o que isso significa? estamos prestes a ter um colapso na economia mundial. amanhã vocês vão ver como vão se comportar as bolsas de valores</t>
+  </si>
+  <si>
+    <t>@camaradeputados parabéns inúteis! o país começando a ser afetado com a queda das bolsas, a economia tentando se recuperar, vcs fazem essa cagada! é mta imbecilidade em um lugar!</t>
+  </si>
+  <si>
+    <t>rt @fabiojbacha: vou falar: bolsas deveriam fechar uns dias até as informações estarem certas.. movimento de destruição de riqueza aue mtos…</t>
+  </si>
+  <si>
+    <t>rt @gdoweber: amanhã as bolsas não caem, desabam…</t>
+  </si>
+  <si>
+    <t>@alesilva_38 proponha hoje! privatizar todas as faculdades federais. vai sobrar dinheiro para mais essa "benfeitoria" vinda do pagador de impostos.
 corja!! viu o resultado imediato nas bolsas. esse é o estadista que quer ser presidente?? canalhas!!</t>
   </si>
   <si>
-    <t xml:space="preserve">eu: hoje eu durmo cedo, vou deitar e apagar!
+    <t>eu: hoje eu durmo cedo, vou deitar e apagar!
 meu cérebro às 01h: vamos entrar no site da louis vuitton pra ver os sapatos? nós nunca vimos os sapatos, só as bolsas. vaaaaaaamos, pega o celular 🤗</t>
   </si>
   <si>
-    <t xml:space="preserve">@multishow se isso aconteceu na dispensa qndo foi colocar as bolsas me explica como ela tava com a correntinha na mão na hora dele sair e entregou p ele... estranho né pq se ela ñ quis pegar dentro da dispensa qndo ele deu era p estar com ele dentro do bolso qndo saiu 🤔😏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">china parou. itália parou. eua não pode mais receber voos da europa. as ligas americanas cancelaram a temporada. grandes eventos esportivos também são adiados ou sem público. bolsas mundiais despencaram. escolas estão fechando em todo o mundo. corona vírus devastador.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@reginaldfjohns3 @drhache_70 bolsas de coto no? https://t.co/oaoghlwyqn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @prongshits: @goldentrxsh essa é a giselly, o mal em figura de gente
+    <t>@multishow se isso aconteceu na dispensa qndo foi colocar as bolsas me explica como ela tava com a correntinha na mão na hora dele sair e entregou p ele... estranho né pq se ela ñ quis pegar dentro da dispensa qndo ele deu era p estar com ele dentro do bolso qndo saiu 🤔😏</t>
+  </si>
+  <si>
+    <t>china parou. itália parou. eua não pode mais receber voos da europa. as ligas americanas cancelaram a temporada. grandes eventos esportivos também são adiados ou sem público. bolsas mundiais despencaram. escolas estão fechando em todo o mundo. corona vírus devastador.</t>
+  </si>
+  <si>
+    <t>@reginaldfjohns3 @drhache_70 bolsas de coto no? https://t.co/oaoghlwyqn</t>
+  </si>
+  <si>
+    <t>rt @prongshits: @goldentrxsh essa é a giselly, o mal em figura de gente
 ela é a abelha rainha, estrela, as outras duas (jhuly e iasmin) sã…</t>
   </si>
   <si>
-    <t xml:space="preserve">@ailtonbenedito no 🎯
+    <t>@ailtonbenedito no 🎯
 conseguem comprar alimentos com valores reduzidos, comprar ações no colapso das bolsas com seus dólares fora dos eua e quem perde são os países capitalistas e democrático. criam uma guerra química e biológica quando estão passando por problemas. é o comunismo na prática.</t>
   </si>
   <si>
-    <t xml:space="preserve">@elianabragam @manuocampos1 no mesmo ritmo. oportunizando-se da queda nas bolsas.
+    <t>@elianabragam @manuocampos1 no mesmo ritmo. oportunizando-se da queda nas bolsas.
 além de sobrar alimentos e insumos p aumentar as exportações. bolsos cheios de grana pra alguns.</t>
   </si>
   <si>
-    <t xml:space="preserve">@eikebatista valor investe diz q a forte alta das bolsas da véspera acabou se mostrando apenas um soluço. no brasil, a queda do ibovespa foi tamanha nesta quarta-feira (11) que o botão de pânico da b3 precisou ser acionado pela segunda vez em três dias.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por conta do corona virus, tv do candidato vermelho bloomberg virou obrigatória pra mim.
+    <t>@eikebatista valor investe diz q a forte alta das bolsas da véspera acabou se mostrando apenas um soluço. no brasil, a queda do ibovespa foi tamanha nesta quarta-feira (11) que o botão de pânico da b3 precisou ser acionado pela segunda vez em três dias.</t>
+  </si>
+  <si>
+    <t>por conta do corona virus, tv do candidato vermelho bloomberg virou obrigatória pra mim.
 só números vermelhos e ruins, como o dono.
 bolsas asiáticas  3.5% em queda...</t>
   </si>
   <si>
-    <t xml:space="preserve">@arvdatt @eduardo_cury @liacrespo hoje já derrubaram as bolsas em 12%.  não dá  mais pra passar a mão! temos q ir pra cima!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @parox40: bolsas:
+    <t>@arvdatt @eduardo_cury @liacrespo hoje já derrubaram as bolsas em 12%.  não dá  mais pra passar a mão! temos q ir pra cima!</t>
+  </si>
+  <si>
+    <t>rt @parox40: bolsas:
 índice nikkey ( japão ) -5%. 
 s&amp;amp;p/asx 200 ( áustrália ) -7%</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @hoc111: queda das bolsas pelo mundo:
+    <t>rt @hoc111: queda das bolsas pelo mundo:
 brasil: -10%
 eua: -5%
 alemanha: -6,5%
@@ -343,10 +348,10 @@
 grécia: -12,…</t>
   </si>
   <si>
-    <t xml:space="preserve">maluco, as bolsas vão derreter hoje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@adrianocezak @radiosenado nosso presidente tem que
+    <t>maluco, as bolsas vão derreter hoje</t>
+  </si>
+  <si>
+    <t>@adrianocezak @radiosenado nosso presidente tem que
 lutar c um congresso vendido 
 stf corrompido 
 esquerda hipócrita q vomita democracia mas, n aceita a derrota 
@@ -355,260 +360,260 @@
 estamos do lado dele⏬</t>
   </si>
   <si>
-    <t xml:space="preserve">bolso na parte da frente resolveria meus prooblemas com bolsas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daí tô olhando as bolsas
+    <t>bolso na parte da frente resolveria meus prooblemas com bolsas</t>
+  </si>
+  <si>
+    <t>daí tô olhando as bolsas
 revirei meu quarto todo
 olhei nas roupas pra lavar
 procurei na casa toda
 e nada de achar minha autoestima</t>
   </si>
   <si>
-    <t xml:space="preserve">vou falar: bolsas deveriam fechar uns dias até as informações estarem certas.. movimento de destruição de riqueza aue mtos acham que rica só na tela chega na economia real aos torcedores da alegria de perda dos outros!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@elianamrsz @amazinghercules @calssilva @elianereal3 @samiabomfim mas é claro, se as bolsas da europa e dos eua ainda começaram a dar sinal de resultado, é um tanto quanto ingenuidade esperar que a do br vai ter o mesmo empenho.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolsas vão despencar amanhã.. jesus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @realthiagoreis: as bolsas de valores pelo mundo amanhã terão uma queda histórica.
+    <t>vou falar: bolsas deveriam fechar uns dias até as informações estarem certas.. movimento de destruição de riqueza aue mtos acham que rica só na tela chega na economia real aos torcedores da alegria de perda dos outros!</t>
+  </si>
+  <si>
+    <t>@elianamrsz @amazinghercules @calssilva @elianereal3 @samiabomfim mas é claro, se as bolsas da europa e dos eua ainda começaram a dar sinal de resultado, é um tanto quanto ingenuidade esperar que a do br vai ter o mesmo empenho.</t>
+  </si>
+  <si>
+    <t>bolsas vão despencar amanhã.. jesus</t>
+  </si>
+  <si>
+    <t>rt @realthiagoreis: as bolsas de valores pelo mundo amanhã terão uma queda histórica.
 as dessa semana até agora não são nada.
 e, como sem…</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @estadao: editorial: se o presidente estiver certo, a 'grande mídia' terá confundido bolsas de todo o mundo, além de ter criado a ilusão…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolsas na ásia caem depois que trump anuncia proibição de viagens da união europeia para os eua: https://t.co/rbudqx78fc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coronavirus x dengue x economia 
+    <t>rt @estadao: editorial: se o presidente estiver certo, a 'grande mídia' terá confundido bolsas de todo o mundo, além de ter criado a ilusão…</t>
+  </si>
+  <si>
+    <t>bolsas na ásia caem depois que trump anuncia proibição de viagens da união europeia para os eua: https://t.co/rbudqx78fc</t>
+  </si>
+  <si>
+    <t>coronavirus x dengue x economia 
 galera a questão do novo coronavirus é que o contágio é alto, mas a letalidade até então é baixa. não há motivos para uma histeria. 
 as bolsas do mundo todo vão continuar derretendo, então cuidado com os fake news que vai ter a respeito disso. -&amp;gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">entrei aqui pra contar que tô em 5° lugar de 2 bolsas na lista de espera do prouni e tô muito esperançosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @agenciapublica: 📣📣atenção, estudante! você até o dia 15/03 para inscrever sua pauta sobre mobilidade urbana no concurso de microbolsas…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mesmo sem saber até, se terei um emprego, mesmo após estudar mais de 4 anos, alguns leigos não tem noção do que está por trás desse vírus, que foi declarado como pandemia, nossa país sofreu corte nas bolsas de iniciação científica, e agora quem garante que estamos estruturados ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @eraursal: folha ao vivo - acompanhe ao vivo o mercado financeiro, bolsas pelo mundo e dólar. veja mais no uol. acesse: https://t.co/phk…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@nesimachado agora no mundo estão em queda todas as bolsas operando, os índices futuros das bolsas que abrirão amanhã cedo, as commodities com o petróleo puxando a fila, o bitcoin e o ouro. todos os ativos em queda simultânea. quem tem dinheiro está se abrigando em título de dívida pública.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@tatatrt eles tem uma pochete de crocs e essas bolsas de levar bolsa que eu achei legais.
+    <t>entrei aqui pra contar que tô em 5° lugar de 2 bolsas na lista de espera do prouni e tô muito esperançosa</t>
+  </si>
+  <si>
+    <t>rt @agenciapublica: 📣📣atenção, estudante! você até o dia 15/03 para inscrever sua pauta sobre mobilidade urbana no concurso de microbolsas…</t>
+  </si>
+  <si>
+    <t>mesmo sem saber até, se terei um emprego, mesmo após estudar mais de 4 anos, alguns leigos não tem noção do que está por trás desse vírus, que foi declarado como pandemia, nossa país sofreu corte nas bolsas de iniciação científica, e agora quem garante que estamos estruturados ?</t>
+  </si>
+  <si>
+    <t>rt @eraursal: folha ao vivo - acompanhe ao vivo o mercado financeiro, bolsas pelo mundo e dólar. veja mais no uol. acesse: https://t.co/phk…</t>
+  </si>
+  <si>
+    <t>@nesimachado agora no mundo estão em queda todas as bolsas operando, os índices futuros das bolsas que abrirão amanhã cedo, as commodities com o petróleo puxando a fila, o bitcoin e o ouro. todos os ativos em queda simultânea. quem tem dinheiro está se abrigando em título de dívida pública.</t>
+  </si>
+  <si>
+    <t>@tatatrt eles tem uma pochete de crocs e essas bolsas de levar bolsa que eu achei legais.
 o sapatinho ali também é https://t.co/gucyocigxg</t>
   </si>
   <si>
-    <t xml:space="preserve">bolsas asiáticas operando em forte queda depois da oms declarar a pandemia e declaração do trump.
+    <t>bolsas asiáticas operando em forte queda depois da oms declarar a pandemia e declaração do trump.
 é possível outro apagão por aqui.</t>
   </si>
   <si>
-    <t xml:space="preserve">@sahpetrachin e eu que só fiquei em 3°, com duas bolsas só 🤦🏻‍♀️</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @jornalbsm: minutos depois do anúncio da pandemia de coronavírus, as bolsas entraram em queda livre.
+    <t>@sahpetrachin e eu que só fiquei em 3°, com duas bolsas só 🤦🏻‍♀️</t>
+  </si>
+  <si>
+    <t>rt @jornalbsm: minutos depois do anúncio da pandemia de coronavírus, as bolsas entraram em queda livre.
 https://t.co/4kpkcqcla9</t>
   </si>
   <si>
-    <t xml:space="preserve">@henrique_rossi @franciscorazzo @gazetadopovo vc é um humorista!!! agora dólar quase 5 reais, bolsas despencando, pibinho mixuruca, desemprego alto e vc contando piada? 😂😂😂😂😂😂😂😂😂😂😂😂😂😂😂😂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @_madson7: gente queria fazer um pedido pra vcs, minha mãe vai fazer um cirurgia de retirada de útero.
+    <t>@henrique_rossi @franciscorazzo @gazetadopovo vc é um humorista!!! agora dólar quase 5 reais, bolsas despencando, pibinho mixuruca, desemprego alto e vc contando piada? 😂😂😂😂😂😂😂😂😂😂😂😂😂😂😂😂</t>
+  </si>
+  <si>
+    <t>rt @_madson7: gente queria fazer um pedido pra vcs, minha mãe vai fazer um cirurgia de retirada de útero.
 e eu quero pedir pra quem puder,…</t>
   </si>
   <si>
-    <t xml:space="preserve">@oboneco2 amanhã as bolsas do mundo inteiro colapsando.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @sergiochapelao: bolsas asiáticas operando em forte queda depois da oms declarar a pandemia e declaração do trump.
+    <t>@oboneco2 amanhã as bolsas do mundo inteiro colapsando.</t>
+  </si>
+  <si>
+    <t>rt @sergiochapelao: bolsas asiáticas operando em forte queda depois da oms declarar a pandemia e declaração do trump.
 é possível outro apag…</t>
   </si>
   <si>
-    <t xml:space="preserve">bolsas em queda livre agora
+    <t>bolsas em queda livre agora
 a bolsas americanas acentuam as perdas após trump suspender, agora a noite, todos os vôos vindos da europa para os eua nos próximos 30 dias. https://t.co/d9bnv9rmkv</t>
   </si>
   <si>
-    <t xml:space="preserve">e com esse decreto de pandemia (demorou né) as bolsas despencaram novamente. e sim, amanhã dólar a 5 pila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">novo circuit breaker amanhã? as bolsas asiática já tão em baixa, depois dessa notícia do trump não duvido nada termos mais um cb amanhã</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @eu_gregrolim: mercado financeiro em caos com bolsas no mundo inteiro interrompendo operações.
+    <t>e com esse decreto de pandemia (demorou né) as bolsas despencaram novamente. e sim, amanhã dólar a 5 pila</t>
+  </si>
+  <si>
+    <t>novo circuit breaker amanhã? as bolsas asiática já tão em baixa, depois dessa notícia do trump não duvido nada termos mais um cb amanhã</t>
+  </si>
+  <si>
+    <t>rt @eu_gregrolim: mercado financeiro em caos com bolsas no mundo inteiro interrompendo operações.
 bolsonaro (presidente democraticamente e…</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @wsarai: essa medida terá forte impacto em diversos setores da #economia mundial, inclusive do ponto de vista da percepção dos agentes e…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @anpg: representando a anpg em debate na comissão geral da câmara sobre o #coronavirusnobrasil, @rmarcela65 questiona o déficit de recur…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolsas asiáticas têm forte queda após discurso de trump; índices futuros despencam
+    <t>rt @wsarai: essa medida terá forte impacto em diversos setores da #economia mundial, inclusive do ponto de vista da percepção dos agentes e…</t>
+  </si>
+  <si>
+    <t>rt @anpg: representando a anpg em debate na comissão geral da câmara sobre o #coronavirusnobrasil, @rmarcela65 questiona o déficit de recur…</t>
+  </si>
+  <si>
+    <t>bolsas asiáticas têm forte queda após discurso de trump; índices futuros despencam
 https://t.co/ctthh34gy6 https://t.co/ngsdtwznq1</t>
   </si>
   <si>
-    <t xml:space="preserve">escreve ai o que eu to falando ou da print nessa tela. primeiro, a histeria fabricada pelo corona virus. agora, essa queda violenta do preço do petroleo com uma suposta "briga" entre arábia e russia. bolsas despencam ao redor do mundo e num primeiro momento +</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@luquinhasgvs as pessoas recusam que eu segure as bolsas delas, so estranha ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@binhario2019 as bolsas pelo mundo seguem caindo e esse s&amp;amp;p 500 vix é conhecido como índice do medo.
+    <t>escreve ai o que eu to falando ou da print nessa tela. primeiro, a histeria fabricada pelo corona virus. agora, essa queda violenta do preço do petroleo com uma suposta "briga" entre arábia e russia. bolsas despencam ao redor do mundo e num primeiro momento +</t>
+  </si>
+  <si>
+    <t>@luquinhasgvs as pessoas recusam que eu segure as bolsas delas, so estranha ?</t>
+  </si>
+  <si>
+    <t>@binhario2019 as bolsas pelo mundo seguem caindo e esse s&amp;amp;p 500 vix é conhecido como índice do medo.
 tudo indica que amanhã será outro dia terrível para o mercado. https://t.co/5gb3nncjwr</t>
   </si>
   <si>
-    <t xml:space="preserve">a gripe suína veio no rastro com o estouro da bolha do subprime que acabou com as bolsas no mundo inteiro
+    <t>a gripe suína veio no rastro com o estouro da bolha do subprime que acabou com as bolsas no mundo inteiro
 agora o coronavírus vem de carona nessa era que retoma o autoritarismo de regimes totalitários a la droite</t>
   </si>
   <si>
-    <t xml:space="preserve">com 2º circuit breakers em três dias, ibovespa fecha em queda de 7,67% | bolsas e índices | valor investe https://t.co/txreka6sju
+    <t>com 2º circuit breakers em três dias, ibovespa fecha em queda de 7,67% | bolsas e índices | valor investe https://t.co/txreka6sju
 e o pau novamente... tá indo pro cu.</t>
   </si>
   <si>
-    <t xml:space="preserve">nenhum outro estudante é preparado p levar duas mochilas uma maleta e tres bolsas com tanta maestria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">não acredito que esteja havendo alavancagem no sistema, mas foi com alavancagem que a aig levou o mundo em ruínas, pós queda do lehmann brothers. se houver um problema parecido com falta de fluxo o bc precisa agir. principalmente com essa queda das bolsas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @fnxconservadora: @alexandregarcia já matou a charada sobre esse "surto" de coronavírus e o porquê da oms decretar pandemia, derrubando…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ailtonbenedito histeria calculada. oms decreta pandemia somente após aval da china, pois primeiro ela precisa especular os valores das empresas nas grandes bolsas de valores. 
+    <t>nenhum outro estudante é preparado p levar duas mochilas uma maleta e tres bolsas com tanta maestria</t>
+  </si>
+  <si>
+    <t>não acredito que esteja havendo alavancagem no sistema, mas foi com alavancagem que a aig levou o mundo em ruínas, pós queda do lehmann brothers. se houver um problema parecido com falta de fluxo o bc precisa agir. principalmente com essa queda das bolsas.</t>
+  </si>
+  <si>
+    <t>rt @fnxconservadora: @alexandregarcia já matou a charada sobre esse "surto" de coronavírus e o porquê da oms decretar pandemia, derrubando…</t>
+  </si>
+  <si>
+    <t>@ailtonbenedito histeria calculada. oms decreta pandemia somente após aval da china, pois primeiro ela precisa especular os valores das empresas nas grandes bolsas de valores. 
 segue o ritmo do mundo...</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @mottatarcisio: o que é "imprecionante", como escreve weintraub, é a câmara de vereadores homenagear quem corta bolsas de pesquisa, quem…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @rede_marco: vídeos que não podem ser esquecidos
+    <t>rt @mottatarcisio: o que é "imprecionante", como escreve weintraub, é a câmara de vereadores homenagear quem corta bolsas de pesquisa, quem…</t>
+  </si>
+  <si>
+    <t>rt @rede_marco: vídeos que não podem ser esquecidos
 ricardo amorim, "economista"(?), apresentador de televisão do programa m. connection d…</t>
   </si>
   <si>
-    <t xml:space="preserve">tenham um pouco de álcool nos bolsos e bolsas. pra limpar as mãos nas ruas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@pedrodoria uma medida estúpida!  típica de trump. não vai amenizar nada pq o vírus já está lá. aéreas vão quebrar!  ou ver seus ativos derreterem!!!  amanhã as bolsas mundiais vão acordar em frangalhos!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">só quero ver a reação das bolsas lá e daqui amanhã depois desta decisão.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @topbovespa: buscas no google por ‘circuit breaker’ sobem quase 1.600% https://t.co/p3vdx2phog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@nanatgil @caroliner_silva ganhou bolsas nas melhores escolas particulares de brasília e é mesquinho o suficiente para desmerecer as conquistas alheias??? não acho que sua educação tenha servido de alguma coisa visto que você está sendo um grande ignorante de merda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">já conhece meu trabalho? segue então #atelierlittlefingers #atelier #costura #bolsas https://t.co/ojk75wqcxa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ktoledus @maragabrilli @maryvicky2017 eu sei e é justo. mas agora? a economia derretendo, bolsas despencando, dólar subindo. pelo amor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @joaoabel_: bolsas desabando pelo mundo
+    <t>tenham um pouco de álcool nos bolsos e bolsas. pra limpar as mãos nas ruas.</t>
+  </si>
+  <si>
+    <t>@pedrodoria uma medida estúpida!  típica de trump. não vai amenizar nada pq o vírus já está lá. aéreas vão quebrar!  ou ver seus ativos derreterem!!!  amanhã as bolsas mundiais vão acordar em frangalhos!!</t>
+  </si>
+  <si>
+    <t>só quero ver a reação das bolsas lá e daqui amanhã depois desta decisão.</t>
+  </si>
+  <si>
+    <t>rt @topbovespa: buscas no google por ‘circuit breaker’ sobem quase 1.600% https://t.co/p3vdx2phog</t>
+  </si>
+  <si>
+    <t>@nanatgil @caroliner_silva ganhou bolsas nas melhores escolas particulares de brasília e é mesquinho o suficiente para desmerecer as conquistas alheias??? não acho que sua educação tenha servido de alguma coisa visto que você está sendo um grande ignorante de merda</t>
+  </si>
+  <si>
+    <t>já conhece meu trabalho? segue então #atelierlittlefingers #atelier #costura #bolsas https://t.co/ojk75wqcxa</t>
+  </si>
+  <si>
+    <t>@ktoledus @maragabrilli @maryvicky2017 eu sei e é justo. mas agora? a economia derretendo, bolsas despencando, dólar subindo. pelo amor.</t>
+  </si>
+  <si>
+    <t>rt @joaoabel_: bolsas desabando pelo mundo
 estados unidos barram voos da europa
 70% da população alemã pode ser infectada, diz merkel
 nba s…</t>
   </si>
   <si>
-    <t xml:space="preserve">bolsas asiáticas têm forte queda após discurso de trump; índices futuros despencam. no café da manhã adiciona 10 gotinhas 😅 no café ☕️ https://t.co/nnur2trcjk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hmm então esse é o período de pânico nas crises que tanto falam. "dessa vez não tem fundo" "deveriam fechar as bolsas até passar".
+    <t>bolsas asiáticas têm forte queda após discurso de trump; índices futuros despencam. no café da manhã adiciona 10 gotinhas 😅 no café ☕️ https://t.co/nnur2trcjk</t>
+  </si>
+  <si>
+    <t>hmm então esse é o período de pânico nas crises que tanto falam. "dessa vez não tem fundo" "deveriam fechar as bolsas até passar".
 enquanto isso lá na china, que tá 1 mês adiantada no ciclo da doença, as coisas começam a melhorar... e vocês ainda acham que não tem fim essa crise?</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @lfnmoreira: última pandemia não houve fechamento de fronteiras, quarentena de países inteiros, paralisação de voos dos eua para outro c…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@b_emsaturno do pt não, nem do bolsonaro, nem do brasil. todas as bolsas de valores tão operando em baixa, é natural o real desvalorizar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vamos fazer um paralelo? eu acho sempre importante esse tipo de coisa: nos anos 80, uma epidemia tomou conta da comunidade lgbtq+, mas o mundo não parou, as bolsas não despencaram, o dólar não disparou, empresas não fecharam, países não entraram em quarentena, empresas +</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @rodrigo_cohen: após a crise de 1929 em quanto tempo as bolsas voltaram ao patamar original?
+    <t>rt @lfnmoreira: última pandemia não houve fechamento de fronteiras, quarentena de países inteiros, paralisação de voos dos eua para outro c…</t>
+  </si>
+  <si>
+    <t>@b_emsaturno do pt não, nem do bolsonaro, nem do brasil. todas as bolsas de valores tão operando em baixa, é natural o real desvalorizar</t>
+  </si>
+  <si>
+    <t>vamos fazer um paralelo? eu acho sempre importante esse tipo de coisa: nos anos 80, uma epidemia tomou conta da comunidade lgbtq+, mas o mundo não parou, as bolsas não despencaram, o dólar não disparou, empresas não fecharam, países não entraram em quarentena, empresas +</t>
+  </si>
+  <si>
+    <t>rt @rodrigo_cohen: após a crise de 1929 em quanto tempo as bolsas voltaram ao patamar original?
 tô perguntando isso só pra ter uma base aqu…</t>
   </si>
   <si>
-    <t xml:space="preserve">@muitoalemck @avgtzmjoe já procurou saber quantos bilhões em ações a china comprou esses dias?
+    <t>@muitoalemck @avgtzmjoe já procurou saber quantos bilhões em ações a china comprou esses dias?
 as bolsas desabaram a china foi lá e comprou tudo , tudinho!!
 a china é gulosa.</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @cgpoggio: trump e coronavírus:
+    <t>rt @cgpoggio: trump e coronavírus:
 ontem era "situation" (situação)
 hoje um "challenge" (desafio)
 vamos aguardar amanhã.  
 bolsas em queda…</t>
   </si>
   <si>
-    <t xml:space="preserve">coleção puro luxo – jacki design [#eieutil] | https://t.co/r5ftu4tupi #bolsas #jackidesign #resenhas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nba cancelada, bolsas de valores em queda, eventos culturais adiados, países em isolamento absoluto, voos cancelados, e a oms acaba de decretar ”pandemia global” do novo ”corona vírus”
+    <t>coleção puro luxo – jacki design [#eieutil] | https://t.co/r5ftu4tupi #bolsas #jackidesign #resenhas</t>
+  </si>
+  <si>
+    <t>nba cancelada, bolsas de valores em queda, eventos culturais adiados, países em isolamento absoluto, voos cancelados, e a oms acaba de decretar ”pandemia global” do novo ”corona vírus”
 e o brasil insiste em lotar estádios de futebol como se nada estivesse acontecendo!
 #pandemia</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @gfiuza_oficial: a única certeza no momento é que a queda violenta das bolsas no mundo não é nem de perto proporcional aos motivos alega…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @valoreconomico: "termômetro do medo" segue em alta e bolsas de ny afundam
+    <t>rt @gfiuza_oficial: a única certeza no momento é que a queda violenta das bolsas no mundo não é nem de perto proporcional aos motivos alega…</t>
+  </si>
+  <si>
+    <t>rt @valoreconomico: "termômetro do medo" segue em alta e bolsas de ny afundam
 https://t.co/eck9racqvi</t>
   </si>
   <si>
-    <t xml:space="preserve">crise mundial do petróleo, coronavirus declarado pandemia, bolsas caindo por todo o planeta... e o congresso nacional faz o que? sucateia o brasil a curto prazo!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@patiimg26 @jairbolsonaro não defendendo o bolsonaro, mas cara, as bolsas de todo o mundo despencaram hoje, procura o índice da bolsa de nova york por exemplo. é natural o real desvalorizar mediante crise global.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as bolsas amanhã https://t.co/nqmzxzkqxf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @bancodobrasil: os últimos acontecimentos relacionados ao coronavírus agitaram as bolsas de todo o mundo em fevereiro. e agora? meus esp…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bom, bastante gente que eu admiro bastante falando que seria um belo ato o fechamento das bolsas agora. esse é o ápice do caos. volatilidade (como citado em petr) maior em 20 anos, chegando o fundo, me parece.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @adrianavandoni: o problema não é a letalidade do vírus, mas o pânico em cadei que ele provoca. por acaso a gripe comum derruba as bolsa…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@uourah um vidrinho de álcool em gel em todas as bolsas q uso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@eikebatista o "touro", associado a momentos de alta nas bolsas, usa seus chifres de baixo para cima. o quadro técnico de "bear market" já havia acontecido com algumas bolsas europeias. e, hj , em mais um dia de pânico nos mercados de ações,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolsas asiáticas já reagem à suspensão de voos vindos da europa aos eua. anunciada há algumas horas por @realdonaldtrump, a medida derruba os índices nikkei (tóquio) e csi300 (companhias listadas em shenzhen e shanghai). esperem mais um circuit breaker na bovespa nesta quinta... https://t.co/r6zf43x7mp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uefa promovendo jogos sem público da ucl, nba suspendendo a temporada, eliminatórias da copa adiadas, famosos diagnosticados, países europeus em total preocupação e com n restrições, bolsas caindo, portas se fechando... corona vírus tem sido bem pior do que eu pensei 😥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">após a crise de 1929 em quanto tempo as bolsas voltaram ao patamar original?
+    <t>crise mundial do petróleo, coronavirus declarado pandemia, bolsas caindo por todo o planeta... e o congresso nacional faz o que? sucateia o brasil a curto prazo!</t>
+  </si>
+  <si>
+    <t>@patiimg26 @jairbolsonaro não defendendo o bolsonaro, mas cara, as bolsas de todo o mundo despencaram hoje, procura o índice da bolsa de nova york por exemplo. é natural o real desvalorizar mediante crise global.</t>
+  </si>
+  <si>
+    <t>as bolsas amanhã https://t.co/nqmzxzkqxf</t>
+  </si>
+  <si>
+    <t>rt @bancodobrasil: os últimos acontecimentos relacionados ao coronavírus agitaram as bolsas de todo o mundo em fevereiro. e agora? meus esp…</t>
+  </si>
+  <si>
+    <t>bom, bastante gente que eu admiro bastante falando que seria um belo ato o fechamento das bolsas agora. esse é o ápice do caos. volatilidade (como citado em petr) maior em 20 anos, chegando o fundo, me parece.</t>
+  </si>
+  <si>
+    <t>rt @adrianavandoni: o problema não é a letalidade do vírus, mas o pânico em cadei que ele provoca. por acaso a gripe comum derruba as bolsa…</t>
+  </si>
+  <si>
+    <t>@uourah um vidrinho de álcool em gel em todas as bolsas q uso</t>
+  </si>
+  <si>
+    <t>@eikebatista o "touro", associado a momentos de alta nas bolsas, usa seus chifres de baixo para cima. o quadro técnico de "bear market" já havia acontecido com algumas bolsas europeias. e, hj , em mais um dia de pânico nos mercados de ações,</t>
+  </si>
+  <si>
+    <t>bolsas asiáticas já reagem à suspensão de voos vindos da europa aos eua. anunciada há algumas horas por @realdonaldtrump, a medida derruba os índices nikkei (tóquio) e csi300 (companhias listadas em shenzhen e shanghai). esperem mais um circuit breaker na bovespa nesta quinta... https://t.co/r6zf43x7mp</t>
+  </si>
+  <si>
+    <t>uefa promovendo jogos sem público da ucl, nba suspendendo a temporada, eliminatórias da copa adiadas, famosos diagnosticados, países europeus em total preocupação e com n restrições, bolsas caindo, portas se fechando... corona vírus tem sido bem pior do que eu pensei 😥</t>
+  </si>
+  <si>
+    <t>após a crise de 1929 em quanto tempo as bolsas voltaram ao patamar original?
 tô perguntando isso só pra ter uma base aqui. 
 também não era nascido ainda...</t>
   </si>
   <si>
-    <t xml:space="preserve">@fvangy @dieggopulido @rfabuabara @petrogustavo ínterbolsa o las bolsas de petro?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@fagareinaldo @renatojb38 @jairbolsonaro basta ler os tweets...
+    <t>@fvangy @dieggopulido @rfabuabara @petrogustavo ínterbolsa o las bolsas de petro?</t>
+  </si>
+  <si>
+    <t>@fagareinaldo @renatojb38 @jairbolsonaro basta ler os tweets...
 assim não fala bobagem!
 kkk
 outras bolsas caíram também! 
@@ -617,199 +622,199 @@
 dólar alias, que já estava bem alto neh... antes de coronavirus e petróleo cair de preço!</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @luiza80674737: @leandroruschel ninguém.sabe o que vai acontecer nada com a crise do corona e petróleo mais quem disse que botafogo esta…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temos dois casos hoje que amanhã vão derrubas as bolsas de valores, declaração da pandemia e as suspensões de todos os voos europa x eua, amanhã será um dia turbulento para a economia. sobre saúde, o que se está fazendo na europa é muito pouco pra conter o virus.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@cintianadois pelo amor de cristo criatura, não tem como esconder esse tipo de coisa, por exemplo esses dias a ibovespa despencou, assim como todas as bolsas no mundo todo, teve uma histeria da galerinha da hipocrisia, culpando o bolsonaro, no dia seguinte a bolsa subiu quase 7% os histéricos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a gente tá entrando em colapso : nba cancelada, jogos de futebol com portões fechados, coachella, lollapalooza e comic on adiados. 
+    <t>rt @luiza80674737: @leandroruschel ninguém.sabe o que vai acontecer nada com a crise do corona e petróleo mais quem disse que botafogo esta…</t>
+  </si>
+  <si>
+    <t>temos dois casos hoje que amanhã vão derrubas as bolsas de valores, declaração da pandemia e as suspensões de todos os voos europa x eua, amanhã será um dia turbulento para a economia. sobre saúde, o que se está fazendo na europa é muito pouco pra conter o virus.</t>
+  </si>
+  <si>
+    <t>@cintianadois pelo amor de cristo criatura, não tem como esconder esse tipo de coisa, por exemplo esses dias a ibovespa despencou, assim como todas as bolsas no mundo todo, teve uma histeria da galerinha da hipocrisia, culpando o bolsonaro, no dia seguinte a bolsa subiu quase 7% os histéricos</t>
+  </si>
+  <si>
+    <t>a gente tá entrando em colapso : nba cancelada, jogos de futebol com portões fechados, coachella, lollapalooza e comic on adiados. 
 bolsas de valores reagindo mal. 
 vôos cancelados, milhares de pessoas infectadas. 
 a onu hoje declarou pandemia.</t>
   </si>
   <si>
-    <t xml:space="preserve">3 bolsas disponíveis e eu sou a quarta colocada. não sei se crio esperança nessa lista de espera prouni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cara, essa crise no chile, crise eua vs. oriente médio, rússia só olhando essas crises como se pedisse "fala um a pra você ver!", coronavírus, crises nas bolsas...
+    <t>3 bolsas disponíveis e eu sou a quarta colocada. não sei se crio esperança nessa lista de espera prouni</t>
+  </si>
+  <si>
+    <t>cara, essa crise no chile, crise eua vs. oriente médio, rússia só olhando essas crises como se pedisse "fala um a pra você ver!", coronavírus, crises nas bolsas...
 é o mais perto do apocalipse da bíblia que nós já chegamos.</t>
   </si>
   <si>
-    <t xml:space="preserve">@amazngspider jjkkkkk eu todo, queria ganhar um sorteio da kylie daquelas bolsas e maquiagens dela, isso eu queria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@miltonneves @mbwander @realdonaldtrump e amanhã as bolsas podem despencar novamente. já sabem que a culpa será atribuída ao @jairbolsonaro  né?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@fabiojbacha as bolsas deveriam ficar abertas 24h pra reduzir o pânico e a incerteza. fechar só iria causar uma onda generalizada de saques.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">é preciso paralisar a privatização de setores estratégicos. como vamos vender o patrimônio dos brasileiros nesse cassino das bolsas globais?? as estatais devem ser utilizadas para ampliar investimentos! https://t.co/iqibia0fqv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">esses eventos mundial são culpa das 13 famílias que comandam o mundo, crise pandemia guerras impacto nas bolsas de valores, sim são tudo controlado por eles..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@alexandregarcia já matou a charada sobre esse "surto" de coronavírus e o porquê da oms decretar pandemia, derrubando todas as bolsas, mundo todo!
+    <t>@amazngspider jjkkkkk eu todo, queria ganhar um sorteio da kylie daquelas bolsas e maquiagens dela, isso eu queria</t>
+  </si>
+  <si>
+    <t>@miltonneves @mbwander @realdonaldtrump e amanhã as bolsas podem despencar novamente. já sabem que a culpa será atribuída ao @jairbolsonaro  né?</t>
+  </si>
+  <si>
+    <t>@fabiojbacha as bolsas deveriam ficar abertas 24h pra reduzir o pânico e a incerteza. fechar só iria causar uma onda generalizada de saques.</t>
+  </si>
+  <si>
+    <t>é preciso paralisar a privatização de setores estratégicos. como vamos vender o patrimônio dos brasileiros nesse cassino das bolsas globais?? as estatais devem ser utilizadas para ampliar investimentos! https://t.co/iqibia0fqv</t>
+  </si>
+  <si>
+    <t>esses eventos mundial são culpa das 13 famílias que comandam o mundo, crise pandemia guerras impacto nas bolsas de valores, sim são tudo controlado por eles..</t>
+  </si>
+  <si>
+    <t>@alexandregarcia já matou a charada sobre esse "surto" de coronavírus e o porquê da oms decretar pandemia, derrubando todas as bolsas, mundo todo!
 https://t.co/sipaxfeioj</t>
   </si>
   <si>
-    <t xml:space="preserve">além da questão sanitária, o impacto de @realdonaldtrump fechar os eua para voo oriundos da europa e a nba suspender os jogos a partir de sexta, vai derreter novamente as bolsas de valores do mundo todo na segunda. o corona vírus é também uma ameaça à economia global.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@gear_never eu tô nessa kkkk não sei se passei ou não tô em 1 de 2 bolsas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@life32z @flelis @pedrocerize e vai continuar sofrendo. comprado em bolsas e aplicado juro longo. amanhã eh chumbo. mas os caras são competentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @glauber_braga: guedes pediu a maia que inclua 19 projetos pra votação. o objetivo seria diminuir impacto da crise das bolsas no brasil.…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @dearaujosandra1: a queda das bolsas de valores é mundial e a alta do dolar americano tmbm é mundial https://t.co/uxm0whcqk9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@allanrobertcm tem uma loja que conserta malas, bolsas e tênis na av. joão de barros, 948 (casa wildice). excelente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@arthurmoledoval doria sempre será o velho psdb de sempre! altos impostos para os pequenos, isenções para os grandes, bolsas para os humildes, grilhões pra classe média.
+    <t>além da questão sanitária, o impacto de @realdonaldtrump fechar os eua para voo oriundos da europa e a nba suspender os jogos a partir de sexta, vai derreter novamente as bolsas de valores do mundo todo na segunda. o corona vírus é também uma ameaça à economia global.</t>
+  </si>
+  <si>
+    <t>@gear_never eu tô nessa kkkk não sei se passei ou não tô em 1 de 2 bolsas</t>
+  </si>
+  <si>
+    <t>@life32z @flelis @pedrocerize e vai continuar sofrendo. comprado em bolsas e aplicado juro longo. amanhã eh chumbo. mas os caras são competentes</t>
+  </si>
+  <si>
+    <t>rt @glauber_braga: guedes pediu a maia que inclua 19 projetos pra votação. o objetivo seria diminuir impacto da crise das bolsas no brasil.…</t>
+  </si>
+  <si>
+    <t>rt @dearaujosandra1: a queda das bolsas de valores é mundial e a alta do dolar americano tmbm é mundial https://t.co/uxm0whcqk9</t>
+  </si>
+  <si>
+    <t>@allanrobertcm tem uma loja que conserta malas, bolsas e tênis na av. joão de barros, 948 (casa wildice). excelente.</t>
+  </si>
+  <si>
+    <t>@arthurmoledoval doria sempre será o velho psdb de sempre! altos impostos para os pequenos, isenções para os grandes, bolsas para os humildes, grilhões pra classe média.
 mobilidade e desenvolvimento de tartaruga.
 sp só existe por que brasileiro não desiste. ri e chora ao mesmo tempo.</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @renovamidia: as inscrições para o programa de doutorado pleno nos #eua foram prorrogadas até 31 de março. ao todo, serão oferecidas até…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @jfmargarida: segue a crise, segue o governo incompetente
+    <t>rt @renovamidia: as inscrições para o programa de doutorado pleno nos #eua foram prorrogadas até 31 de março. ao todo, serão oferecidas até…</t>
+  </si>
+  <si>
+    <t>rt @jfmargarida: segue a crise, segue o governo incompetente
 nenhuma resposta para a crise. esse é o saldo de três dias desde que o mundo…</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @gigzsss: eu fecharia as bolsas por 10 dias.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">folha ao vivo - acompanhe ao vivo o mercado financeiro, bolsas pelo mundo e dólar. veja mais no uol. acesse: https://t.co/phkopq9wmz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">após recuperação de perdas, bolsas da ásia e petróleo têm queda. já as bolsas da europa operam em alta significativa: https://t.co/jtlsh4o8ee https://t.co/mxgyjyiipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grandes chances de ser o estopim de uma grande crise mundial com as bolsas caindo ainda mais durante alguns meses. e olha que sou um cara otimista 😅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @minhyukgom: o hyungwon realmente fez a customização das bolsas dele com a fita que tem os 7 goms e ainda deixou um adesivo enorme do be…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@soraya46158112 eu tive que fazer, pra me cadastrar nas bolsas kkkkkkkk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#trocadepasses @rr_tv 
+    <t>rt @gigzsss: eu fecharia as bolsas por 10 dias.</t>
+  </si>
+  <si>
+    <t>folha ao vivo - acompanhe ao vivo o mercado financeiro, bolsas pelo mundo e dólar. veja mais no uol. acesse: https://t.co/phkopq9wmz</t>
+  </si>
+  <si>
+    <t>após recuperação de perdas, bolsas da ásia e petróleo têm queda. já as bolsas da europa operam em alta significativa: https://t.co/jtlsh4o8ee https://t.co/mxgyjyiipo</t>
+  </si>
+  <si>
+    <t>grandes chances de ser o estopim de uma grande crise mundial com as bolsas caindo ainda mais durante alguns meses. e olha que sou um cara otimista 😅</t>
+  </si>
+  <si>
+    <t>rt @minhyukgom: o hyungwon realmente fez a customização das bolsas dele com a fita que tem os 7 goms e ainda deixou um adesivo enorme do be…</t>
+  </si>
+  <si>
+    <t>@soraya46158112 eu tive que fazer, pra me cadastrar nas bolsas kkkkkkkk</t>
+  </si>
+  <si>
+    <t>#trocadepasses @rr_tv 
 a diferença de altura do @willianarao para o @tmaia29 é de apenas 1 cm. os dois são muito bons, sorte do @flamengo e do jorge jesus em tê-los. quem se entregar mais será o titular! tem que dar o sangue, 3 bolsas de sangue por jogo!</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @folha: bolsas asiáticas têm forte queda após discurso de trump; índices futuros despencam
+    <t>rt @folha: bolsas asiáticas têm forte queda após discurso de trump; índices futuros despencam
 https://t.co/udiosuelag</t>
   </si>
   <si>
-    <t xml:space="preserve">@veramagalhaes bolsa de valores, criatura, não tem nada a ver com bolsas de estudo!
+    <t>@veramagalhaes bolsa de valores, criatura, não tem nada a ver com bolsas de estudo!
 não vá dizer que foram estagiários que escreveram essa publicação! ficou feio, hein!</t>
   </si>
   <si>
-    <t xml:space="preserve">@assist_styx @thameadanelon nós, comunistas, derrubados as bolsas do mundo todo, impedimos os grandes eventos, paramos a nba é a champions, cancelamos todos os vôos da europa pros usa etc... só para impedir essa manifestação!
+    <t>@assist_styx @thameadanelon nós, comunistas, derrubados as bolsas do mundo todo, impedimos os grandes eventos, paramos a nba é a champions, cancelamos todos os vôos da europa pros usa etc... só para impedir essa manifestação!
 não nos deixe ganhar, vá na manifestação e comprimente todos com beijos</t>
   </si>
   <si>
-    <t xml:space="preserve">@cafecomferri fiquei sem reação ao ler pessoas que respeito pedindo fechamento das bolsas por alguns dias.
+    <t>@cafecomferri fiquei sem reação ao ler pessoas que respeito pedindo fechamento das bolsas por alguns dias.
 ainda espero que seja ironia...</t>
   </si>
   <si>
-    <t xml:space="preserve">@anacaro03385658 @wevertonf_ na real q nem com base nas chamadas anteriores pq tem gente que não manifestou interesse
+    <t>@anacaro03385658 @wevertonf_ na real q nem com base nas chamadas anteriores pq tem gente que não manifestou interesse
 ex: se tem 10 bolsas e eu to em 30° e só 10 pessoas manifestaram interesse pode ser q vc tenha chance</t>
   </si>
   <si>
-    <t xml:space="preserve">muita gente tem #curiosidade, quer aplicar  nas bolsas de valores, mas tem medo. ouça o #podcast da @renataloprete. está incrível! https://t.co/furpi7v5te</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @valorinveste: buscas no google por ‘circuit breaker’ sobem quase 1.600%; entenda o que é
+    <t>muita gente tem #curiosidade, quer aplicar  nas bolsas de valores, mas tem medo. ouça o #podcast da @renataloprete. está incrível! https://t.co/furpi7v5te</t>
+  </si>
+  <si>
+    <t>rt @valorinveste: buscas no google por ‘circuit breaker’ sobem quase 1.600%; entenda o que é
 https://t.co/sctek3tlsr</t>
   </si>
   <si>
-    <t xml:space="preserve">@snoweking mew, então sério, aprende.
+    <t>@snoweking mew, então sério, aprende.
 na frança, tem várias oportunidades de estudo pra estrangeiros, e as universidades públicas lá não são tão caras (é que convertendo pra euro tudo fica caro, principalmente na situação atual né kk) mas tem diversas bolsas pra mestrado, pesquisa, etc</t>
   </si>
   <si>
-    <t xml:space="preserve">@fuckingbreno eis que a pessoa não nota que todas as bolsas de valores despencaram hoje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@profpaulamarisa oms a serviço do globalismo e do fortalecimento da china que vai comprar muito nas bolsas pelo mundo. temos que reagir por aqui. #dia15pelobrasil ✨🇧🇷✨🙏✨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o pronunciamento do @realdonaldtrump realizado nessa noite, informou que viagens do eua para europa estão cancelado por 30 dias. logo após o pronunciamento, as bolsas asiáticas abriram com forte queda, hong kong teve queda de -5% ate o momento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">é muito feio meus amigos da esquerda aproveitar um momento de pandemia global, crise do petróleo, das bolsas no mundo, para comemorar como derrocada do atual governo. governo faz muita merda, mas nesse caso ele não tem muito o que fazer. sejamos sensatos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @jeansena: @attuchleonardo bolsas asiáticas estão despencando!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @luciaazevedo: @ailtonbenedito no 🎯
+    <t>@fuckingbreno eis que a pessoa não nota que todas as bolsas de valores despencaram hoje</t>
+  </si>
+  <si>
+    <t>@profpaulamarisa oms a serviço do globalismo e do fortalecimento da china que vai comprar muito nas bolsas pelo mundo. temos que reagir por aqui. #dia15pelobrasil ✨🇧🇷✨🙏✨</t>
+  </si>
+  <si>
+    <t>o pronunciamento do @realdonaldtrump realizado nessa noite, informou que viagens do eua para europa estão cancelado por 30 dias. logo após o pronunciamento, as bolsas asiáticas abriram com forte queda, hong kong teve queda de -5% ate o momento.</t>
+  </si>
+  <si>
+    <t>é muito feio meus amigos da esquerda aproveitar um momento de pandemia global, crise do petróleo, das bolsas no mundo, para comemorar como derrocada do atual governo. governo faz muita merda, mas nesse caso ele não tem muito o que fazer. sejamos sensatos.</t>
+  </si>
+  <si>
+    <t>rt @jeansena: @attuchleonardo bolsas asiáticas estão despencando!</t>
+  </si>
+  <si>
+    <t>rt @luciaazevedo: @ailtonbenedito no 🎯
 conseguem comprar alimentos com valores reduzidos, comprar ações no colapso das bolsas com seus dóla…</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @valorinveste: banco central vende toda a oferta de us$ 1 bilhão em leilão para conter alta do dólar 
+    <t>rt @valorinveste: banco central vende toda a oferta de us$ 1 bilhão em leilão para conter alta do dólar 
 https://t.co/in6luhejs0</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @cslupinacci: bom, bastante gente que eu admiro bastante falando que seria um belo ato o fechamento das bolsas agora. esse é o ápice do…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@agenciapublica @theinterceptbr deviam divulgar isso em data posterior. amanhã só teremos coronavírus e queda das bolsas mundiais. a repercussão será pequena.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolsas:
+    <t>rt @cslupinacci: bom, bastante gente que eu admiro bastante falando que seria um belo ato o fechamento das bolsas agora. esse é o ápice do…</t>
+  </si>
+  <si>
+    <t>@agenciapublica @theinterceptbr deviam divulgar isso em data posterior. amanhã só teremos coronavírus e queda das bolsas mundiais. a repercussão será pequena.</t>
+  </si>
+  <si>
+    <t>bolsas:
 índice nikkey ( japão ) -5%. 
 s&amp;amp;p/asx 200 ( áustrália ) -7%</t>
   </si>
   <si>
-    <t xml:space="preserve">@mara56980224 esse fenômeno mundial mostra de certa forma o fracasso dessa política econômica atual no mundo , os juros baixos acabaram fazendo uma correria a bolsa e muitas bolsas ficaram em bolha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @veramartins: bolsas na ásia caem depois que trump anuncia proibição de viagens da união europeia para os eua:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bora lá, vocês são traders, porque querem fecharam as bolsas por dias?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">olhando o preço de bolsas térmicas e marmitas e pensando nossa que bom seria ter um emprego pra comprar essas coisas pra levar pro emprego</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @vitor_bellis: discurso do trump decepcionou.
+    <t>@mara56980224 esse fenômeno mundial mostra de certa forma o fracasso dessa política econômica atual no mundo , os juros baixos acabaram fazendo uma correria a bolsa e muitas bolsas ficaram em bolha</t>
+  </si>
+  <si>
+    <t>rt @veramartins: bolsas na ásia caem depois que trump anuncia proibição de viagens da união europeia para os eua:</t>
+  </si>
+  <si>
+    <t>bora lá, vocês são traders, porque querem fecharam as bolsas por dias?</t>
+  </si>
+  <si>
+    <t>olhando o preço de bolsas térmicas e marmitas e pensando nossa que bom seria ter um emprego pra comprar essas coisas pra levar pro emprego</t>
+  </si>
+  <si>
+    <t>rt @vitor_bellis: discurso do trump decepcionou.
 corrida nos títulos dos eua de novo.
 impactos no futuro das bolsas americanas são certos.…</t>
   </si>
   <si>
-    <t xml:space="preserve">@esturdiopedro @monicabergamo esperto foi o bolsonaro, que cortou as bolsas e o orçamento das universidades pra ninguém viajar e pegar corona virus
+    <t>@esturdiopedro @monicabergamo esperto foi o bolsonaro, que cortou as bolsas e o orçamento das universidades pra ninguém viajar e pegar corona virus
 um visionário</t>
   </si>
   <si>
-    <t xml:space="preserve">@conexaopolitica no 🎯
+    <t>@conexaopolitica no 🎯
 conseguem comprar alimentos com valores reduzidos, comprar ações no colapso das bolsas com seus dólares fora dos eua e quem perde são os países capitalistas e democrático. criam uma guerra química e biológica quando estão passando por problemas. é o comunismo na prática.</t>
   </si>
   <si>
-    <t xml:space="preserve">@leonelradde gente não dá pra colocar a culpa da queda no bozo não pq basicamente todas as bolsas pelo mundo cairam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolsas asiáticas abrindo com queda de 30%, amanhã o dia promete https://t.co/8uglwgrfpi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@fernandoulrich @felippe_hermes o liquida porto-alegre se espalhou pelas bolsas de valores...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- tom hanks e rudy gobert infectados
+    <t>@leonelradde gente não dá pra colocar a culpa da queda no bozo não pq basicamente todas as bolsas pelo mundo cairam</t>
+  </si>
+  <si>
+    <t>bolsas asiáticas abrindo com queda de 30%, amanhã o dia promete https://t.co/8uglwgrfpi</t>
+  </si>
+  <si>
+    <t>@fernandoulrich @felippe_hermes o liquida porto-alegre se espalhou pelas bolsas de valores...</t>
+  </si>
+  <si>
+    <t>- tom hanks e rudy gobert infectados
 - nba suspendeu a temporada
 - itália fechou as fronteiras
 - frança e espanha limitaram reuniões de pessoas
@@ -819,50 +824,50 @@
 bah, coronavirus</t>
   </si>
   <si>
-    <t xml:space="preserve">o índice nikkei caía mais de 5% há pouco. amanhã as bolsas do ocidente vão sofrer!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@patecommaionese @lauraabcarvalho o surto de h1n1 a 10 anos atrás, vírus mais letal que o covid-19, teve um ótimo trabalho de contenção focado nos grupos de risco e sem essa histeria coletiva gerada pelo covid-19.  há muitas coisas em jogo nesse momento além de vidas. olhe as bolsas de valores.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">economistas, especialistas em mercado financeiro: o que aconteceria se as bolsas ficassem em “circuit breaker”, sem negócios, por uma ou mais semanas? se tá tudo sendo adiado, cancelado, fábrica parando etc, por que a bolsa precisa estar operando?
+    <t>o índice nikkei caía mais de 5% há pouco. amanhã as bolsas do ocidente vão sofrer!</t>
+  </si>
+  <si>
+    <t>@patecommaionese @lauraabcarvalho o surto de h1n1 a 10 anos atrás, vírus mais letal que o covid-19, teve um ótimo trabalho de contenção focado nos grupos de risco e sem essa histeria coletiva gerada pelo covid-19.  há muitas coisas em jogo nesse momento além de vidas. olhe as bolsas de valores.</t>
+  </si>
+  <si>
+    <t>economistas, especialistas em mercado financeiro: o que aconteceria se as bolsas ficassem em “circuit breaker”, sem negócios, por uma ou mais semanas? se tá tudo sendo adiado, cancelado, fábrica parando etc, por que a bolsa precisa estar operando?
 pergunta sincera.</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @gaudtorquato: as coisas ruins não passam de ficção. guerra do petróleo? besteira. coronavirus? fantasia. baque das bolsas? exagero. e t…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@_fgarcia33 @twoghostsmom @_thiagofranklin pois é mano, bolsas pelo mundo caindo, recessão em vários países e um vírus que mata apenas as pessoas idosas ou com baixa imunidade. um processo de "seleção artificial". os estudos dizem que a vacina só fica pronta em 1 ano, até lá vai ser caos total.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">morava na china em 2008. lembro de ver as bolsas asiáticas operando em queda livre e depois ficar até tarde no computador vendo o banho de sangue se espalhar pelos mercados do mundo. não imaginei que veria aquilo de novo na vida.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@portuganaa bolsas na ásia estão tudo em queda nesse momento. 
+    <t>rt @gaudtorquato: as coisas ruins não passam de ficção. guerra do petróleo? besteira. coronavirus? fantasia. baque das bolsas? exagero. e t…</t>
+  </si>
+  <si>
+    <t>@_fgarcia33 @twoghostsmom @_thiagofranklin pois é mano, bolsas pelo mundo caindo, recessão em vários países e um vírus que mata apenas as pessoas idosas ou com baixa imunidade. um processo de "seleção artificial". os estudos dizem que a vacina só fica pronta em 1 ano, até lá vai ser caos total.</t>
+  </si>
+  <si>
+    <t>morava na china em 2008. lembro de ver as bolsas asiáticas operando em queda livre e depois ficar até tarde no computador vendo o banho de sangue se espalhar pelos mercados do mundo. não imaginei que veria aquilo de novo na vida.</t>
+  </si>
+  <si>
+    <t>@portuganaa bolsas na ásia estão tudo em queda nesse momento. 
 https://t.co/swovkacjze</t>
   </si>
   <si>
-    <t xml:space="preserve">@millfloraa gosto só das bolsas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">será que as bolsas vao aguentar mais uma grande queda amanha?
+    <t>@millfloraa gosto só das bolsas</t>
+  </si>
+  <si>
+    <t>será que as bolsas vao aguentar mais uma grande queda amanha?
 aguardem,pelo visto essa crise global é inevitável!</t>
   </si>
   <si>
-    <t xml:space="preserve">@giancarlobizzo2 34 casos confirmados ontem, hoje quase dobrou pra 69. oms elevou a classificação como pandemia. bolsas de valores afundando. 
+    <t>@giancarlobizzo2 34 casos confirmados ontem, hoje quase dobrou pra 69. oms elevou a classificação como pandemia. bolsas de valores afundando. 
 ta tudo tranquiloooo!!!</t>
   </si>
   <si>
-    <t xml:space="preserve">@bolsoregrets porque por enquanto a contaminação nos eua é muito pequena. nessa semana as bolsas derreteram e ele precisava dar uma resposta. ele não deu nenhum plano 1) pra não se comprometer com nada 2)minimizar a situação no intuito de diminuir pânico. foi esperto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @depeduardocunha: e as bolsas sofrendo,chegando a estagios por mim previstos faz tempo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@townerazuibebe lá nos eua é muito comum receber bolsas de vitaminas e injeções pra fortalecer o sistema imunológico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- bolsas em queda pelo mundo
+    <t>@bolsoregrets porque por enquanto a contaminação nos eua é muito pequena. nessa semana as bolsas derreteram e ele precisava dar uma resposta. ele não deu nenhum plano 1) pra não se comprometer com nada 2)minimizar a situação no intuito de diminuir pânico. foi esperto</t>
+  </si>
+  <si>
+    <t>rt @depeduardocunha: e as bolsas sofrendo,chegando a estagios por mim previstos faz tempo</t>
+  </si>
+  <si>
+    <t>@townerazuibebe lá nos eua é muito comum receber bolsas de vitaminas e injeções pra fortalecer o sistema imunológico</t>
+  </si>
+  <si>
+    <t>- bolsas em queda pelo mundo
 - corona vírus pandemia
 - ronaldinho preso
 - dólar quase 5 reais
@@ -870,38 +875,38 @@
 - trump suspendendo viagens da europa pros eua por 30 dias (com exceção do reino unido)</t>
   </si>
   <si>
-    <t xml:space="preserve">visto, mas sem a bolsa, não gosto de andar com bolsas em geral https://t.co/0d78eqmi7g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a queda das bolsas de valores é mundial e a alta do dolar americano tmbm é mundial https://t.co/uxm0whcqk9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@cafecomferri total!!! implorando pra fecharem as bolsas. wtf?!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ta_santti cancelaram a e3, e as bolsas globais tão derretendo
+    <t>visto, mas sem a bolsa, não gosto de andar com bolsas em geral https://t.co/0d78eqmi7g</t>
+  </si>
+  <si>
+    <t>a queda das bolsas de valores é mundial e a alta do dolar americano tmbm é mundial https://t.co/uxm0whcqk9</t>
+  </si>
+  <si>
+    <t>@cafecomferri total!!! implorando pra fecharem as bolsas. wtf?!</t>
+  </si>
+  <si>
+    <t>@ta_santti cancelaram a e3, e as bolsas globais tão derretendo
 coronga foi longe dms</t>
   </si>
   <si>
-    <t xml:space="preserve">dei uma espiada nas bolsas asiáticas, só para imaginar como estará no ocidente daqui algumas horas (e imaginar a careca suada do guedes 😜).
+    <t>dei uma espiada nas bolsas asiáticas, só para imaginar como estará no ocidente daqui algumas horas (e imaginar a careca suada do guedes 😜).
 a boa notícia é que a china se recupera. a má? austrália e índia estão bem fu.
 não entendo p.n., mas acho que amanhã rola break de novo. https://t.co/wwzftlyfi8</t>
   </si>
   <si>
-    <t xml:space="preserve">vou voltar dormir, cansei dessa noite, espero que o dia chegue logo, nao quero levamtar mais essa madrugada, tenho muita coisa ora fazer, arrumar casa, estudar, acompanhar as bolsas, dia atarefado, mas indo bem, a geleia real desta vez nao me fez mal, vejo voces de manha cedo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @limosleo: amanha as bolsas estarao no modo marea turbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @hoomonstaxbr: [atualização] 10.03.20 twt @officialmonstax
+    <t>vou voltar dormir, cansei dessa noite, espero que o dia chegue logo, nao quero levamtar mais essa madrugada, tenho muita coisa ora fazer, arrumar casa, estudar, acompanhar as bolsas, dia atarefado, mas indo bem, a geleia real desta vez nao me fez mal, vejo voces de manha cedo</t>
+  </si>
+  <si>
+    <t>rt @limosleo: amanha as bolsas estarao no modo marea turbo</t>
+  </si>
+  <si>
+    <t>rt @hoomonstaxbr: [atualização] 10.03.20 twt @officialmonstax
 [#monsta_x]
 10.03.20 #monstax x #twotuckgom
 #v_live especial concluído
 cust…</t>
   </si>
   <si>
-    <t xml:space="preserve">rapaz, vc abre o jornal e só vê desgraça:
+    <t>rapaz, vc abre o jornal e só vê desgraça:
 - doença
 - queda das bolsas
 - desconfiança do mercado
@@ -909,30 +914,27 @@
 tnc</t>
   </si>
   <si>
-    <t xml:space="preserve">minha mãe já começou a macetar, está aqui reclamando da bagunça do meu quarto e olhando as bolsas de roupas que comprei kkk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@guilhermeschil5 @jpm_bz vou deixar essa luta pra outra hora. mas veja outros casos onde houve fechamento das bolsas ou proibido short.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@jornalbsm bem interessante a análise do bernardo. 
+    <t>minha mãe já começou a macetar, está aqui reclamando da bagunça do meu quarto e olhando as bolsas de roupas que comprei kkk</t>
+  </si>
+  <si>
+    <t>@guilhermeschil5 @jpm_bz vou deixar essa luta pra outra hora. mas veja outros casos onde houve fechamento das bolsas ou proibido short.</t>
+  </si>
+  <si>
+    <t>@jornalbsm bem interessante a análise do bernardo. 
 a histeria coletiva e mais as baixas nas bolsas do mundo, tem nos feito de idiotas e calculistas.</t>
   </si>
   <si>
-    <t xml:space="preserve">amanhã as empresas aéreas terão grandes perdas (mais uma vez) nas bolsas do mundo inteiro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teste</t>
+    <t>amanhã as empresas aéreas terão grandes perdas (mais uma vez) nas bolsas do mundo inteiro.</t>
+  </si>
+  <si>
+    <t>Teste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -941,26 +943,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -978,1658 +964,1921 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B246"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ248"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:XFD102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="8.6"/>
+    <col min="1" max="1024" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>3</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>3</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>3</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>3</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>3</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>3</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>3</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>3</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>3</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>3</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>3</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>3</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>3</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>0</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>0</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>0</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>0</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>3</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>0</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>3</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>3</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>3</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>3</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>0</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>3</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>3</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>3</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>3</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>3</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>3</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>0</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>3</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>0</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>0</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>3</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>3</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>3</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>3</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>3</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>3</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>3</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>3</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>3</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>3</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>0</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>3</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>3</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>3</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>3</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>3</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>3</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>3</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>0</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>0</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>3</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
         <v>245</v>
       </c>
     </row>
+    <row r="247" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>246</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>